--- a/aca-simp/output/3/res.xlsx
+++ b/aca-simp/output/3/res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x\Desktop\ACA-project\aca-simp\output\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29414639-E9CD-4C35-B1A1-5445DF3B8D2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB28714-6486-4F0B-8B94-6714C35DD4D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7170" xr2:uid="{32194272-F108-40FD-B77C-76DCEBA6BACA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="23">
   <si>
     <t>pain</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,14 @@
   </si>
   <si>
     <t>cluster 8</t>
+  </si>
+  <si>
+    <t>mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>var</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -494,12 +502,18 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,19 +523,49 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.366800477761554</v>
+        <f>AVERAGE(B8:D10)</f>
+        <v>0.41100649263715905</v>
       </c>
       <c r="C2">
-        <v>0.24283197023887801</v>
+        <f>AVERAGE(E8:G10)</f>
+        <v>0.34688827656045074</v>
       </c>
       <c r="D2">
-        <v>0.340600621983772</v>
+        <f>AVERAGE(H8:J10)</f>
+        <v>0.31777739357182799</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>_xlfn.VAR.S(B8:D10)</f>
+        <v>4.3040389654750988E-3</v>
+      </c>
+      <c r="H2">
+        <f>_xlfn.VAR.S(E8:G10)</f>
+        <v>4.4472571432009889E-3</v>
+      </c>
+      <c r="I2">
+        <f>_xlfn.VAR.S(H8:J10)</f>
+        <v>4.4680570767397787E-3</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -529,10 +573,23 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.351475883433013</v>
+        <f>AVERAGE(E11:G13)</f>
+        <v>0.35998352576157</v>
       </c>
       <c r="D3">
-        <v>0.30378997212133202</v>
+        <f>AVERAGE(H11:J13)</f>
+        <v>0.3993148350021008</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f>_xlfn.VAR.S(E11:G13)</f>
+        <v>3.7678285866624694E-3</v>
+      </c>
+      <c r="I3">
+        <f>_xlfn.VAR.S(H11:J13)</f>
+        <v>4.5027951659416254E-3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
@@ -540,7 +597,15 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>0.38804346157956798</v>
+        <f>AVERAGE(H14:J16)</f>
+        <v>0.39227784282591199</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <f>_xlfn.VAR.S(H14:J16)</f>
+        <v>2.3151067380764979E-3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -576,180 +641,153 @@
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8">
-        <v>0.399805681215885</v>
-      </c>
       <c r="C8">
-        <v>0.259349736316562</v>
+        <v>0.43331063250707602</v>
       </c>
       <c r="D8">
-        <v>0.20385315525355899</v>
+        <v>0.33715726986435202</v>
       </c>
       <c r="E8">
-        <v>0.48627026558686298</v>
+        <v>0.35533790301830398</v>
       </c>
       <c r="F8">
-        <v>0.45365727341647</v>
+        <v>0.37532775397699603</v>
       </c>
       <c r="G8">
-        <v>2.33137101409127E-2</v>
+        <v>0.452463466986051</v>
       </c>
       <c r="H8">
-        <v>0.35973157673620099</v>
+        <v>0.44733730076149297</v>
       </c>
       <c r="I8">
-        <v>0.49154773497496101</v>
+        <v>0.28930826991050401</v>
       </c>
       <c r="J8">
-        <v>0.48199930483950498</v>
+        <v>0.36735291229940298</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9">
-        <v>0.43707505983966799</v>
-      </c>
       <c r="D9">
-        <v>0.444997803813722</v>
+        <v>0.462551575540049</v>
       </c>
       <c r="E9">
-        <v>0.31777860964201099</v>
+        <v>0.290127271987977</v>
       </c>
       <c r="F9">
-        <v>0.35919487492874602</v>
+        <v>0.35658776913337198</v>
       </c>
       <c r="G9">
-        <v>1.29325803454464E-2</v>
+        <v>0.39939357657607599</v>
       </c>
       <c r="H9">
-        <v>0.46611753382885102</v>
+        <v>0.35964553938335198</v>
       </c>
       <c r="I9">
-        <v>0.20729002704083299</v>
+        <v>0.25981079027751902</v>
       </c>
       <c r="J9">
-        <v>0.31516134665580797</v>
+        <v>0.35068487501470502</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10">
-        <v>0.45572143012992999</v>
-      </c>
       <c r="E10">
-        <v>0.25252076365785098</v>
+        <v>0.22504539396802301</v>
       </c>
       <c r="F10">
-        <v>0.26839886887750902</v>
+        <v>0.29999085301331901</v>
       </c>
       <c r="G10">
-        <v>1.14207855540925E-2</v>
+        <v>0.367720500383939</v>
       </c>
       <c r="H10">
-        <v>0.35919229772109101</v>
+        <v>0.26758534622131602</v>
       </c>
       <c r="I10">
-        <v>0.12938605530279301</v>
+        <v>0.25215121515190703</v>
       </c>
       <c r="J10">
-        <v>0.25497972075390901</v>
+        <v>0.26612029312625302</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E11">
-        <v>0.43389520178086899</v>
-      </c>
       <c r="F11">
-        <v>0.50814086431453198</v>
+        <v>0.410032215725605</v>
       </c>
       <c r="G11">
-        <v>1.78486474490454E-2</v>
+        <v>0.29149453927262903</v>
       </c>
       <c r="H11">
-        <v>0.40844939882317</v>
+        <v>0.40156497910190098</v>
       </c>
       <c r="I11">
-        <v>0.46903333041535999</v>
+        <v>0.37579631112423401</v>
       </c>
       <c r="J11">
-        <v>0.48456195856311601</v>
+        <v>0.45101608436044599</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F12">
-        <v>0.44738923444170198</v>
-      </c>
       <c r="G12">
-        <v>2.6451418797687799E-2</v>
+        <v>0.37842382228647597</v>
       </c>
       <c r="H12">
-        <v>0.42562715444881699</v>
+        <v>0.51025173605625695</v>
       </c>
       <c r="I12">
-        <v>0.388324152298963</v>
+        <v>0.33408621969812702</v>
       </c>
       <c r="J12">
-        <v>0.48845247300991002</v>
+        <v>0.43951141217376799</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G13">
-        <v>0.67512993381424102</v>
-      </c>
       <c r="H13">
-        <v>1.8573390384027201E-2</v>
+        <v>0.41554205140450601</v>
       </c>
       <c r="I13">
-        <v>3.1131494961178501E-2</v>
+        <v>0.28028973286139203</v>
       </c>
       <c r="J13">
-        <v>1.9956396187444901E-2</v>
+        <v>0.385774988238276</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14">
-        <v>0.41340428018978198</v>
-      </c>
       <c r="I14">
-        <v>0.23751075504504701</v>
+        <v>0.369509954898666</v>
       </c>
       <c r="J14">
-        <v>0.395887953830657</v>
+        <v>0.447551696764104</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I15">
-        <v>0.42596391800541999</v>
-      </c>
       <c r="J15">
-        <v>0.40981341769177598</v>
+        <v>0.35977187681496597</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="J16">
-        <v>0.44568044471472701</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
